--- a/data_mining/car_brands_and_models_links_VW.xlsx
+++ b/data_mining/car_brands_and_models_links_VW.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelqi5&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pout2y&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelqm1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pout6p&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelqpr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutc4&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelqu8&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutfv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelr0f&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutjv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelr4g&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutq1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelr9c&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutt1&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelrcd&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutvm&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelrf2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutyo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelrig&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouu27&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelrm5&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouu63&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelrpg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouua9&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelrtk&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouudo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelryb&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouugv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pels1v&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouukm&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pels4m&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouuns&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pels7p&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouuqj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelsbg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouuta&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelse9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouux2&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelshg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouv09&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelsk3&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouv4q&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelsoj&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouv83&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelst5&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvc6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelsx9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvfn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelt1p&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouviq&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelt4u&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvm7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelt81&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvp0&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peltba&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvrr&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peltdw&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvvl&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peltgi&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvza&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peltkm&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouw38&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelttz&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouw6e&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=peltxv&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouw9z&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelu0z&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouwdv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pelu4t&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouwhq&amp;f1=1</t>
         </is>
       </c>
     </row>

--- a/data_mining/car_brands_and_models_links_VW.xlsx
+++ b/data_mining/car_brands_and_models_links_VW.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pout2y&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63oin&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pout6p&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63olz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutc4&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63oop&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutfv&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63orn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutjv&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63ou4&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutq1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63oxg&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutt1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63pko&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutvm&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63pnq&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=poutyo&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63pq7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouu27&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63psy&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouu63&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63pw7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouua9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63pzf&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouudo&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63q2k&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouugv&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63q6a&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouukm&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63q8v&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouuns&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qbn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouuqj&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qe7&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouuta&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qgk&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouux2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qj9&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouv09&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qm5&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouv4q&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qpi&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouv83&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qsk&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvc6&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63qwe&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvfn&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63r00&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouviq&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63r2z&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvm7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63r5m&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvp0&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63r7p&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvrr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63r9z&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvvl&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63rcv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouvza&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63rfn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouw38&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63riz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouw6e&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63rlt&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouw9z&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63ros&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouwdv&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63rsc&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pouwhq&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q63rvi&amp;f1=1</t>
         </is>
       </c>
     </row>
